--- a/src/data/grooms_data.xlsx
+++ b/src/data/grooms_data.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t>Event</t>
   </si>
@@ -28,6 +28,9 @@
   </si>
   <si>
     <t>Image</t>
+  </si>
+  <si>
+    <t>Link</t>
   </si>
   <si>
     <t>When is the wedding?</t>
@@ -49,6 +52,9 @@
   </si>
   <si>
     <t>rings.jpeg</t>
+  </si>
+  <si>
+    <t>https://www.herringtononthebay.com/</t>
   </si>
   <si>
     <t>Bachelor Party</t>
@@ -110,6 +116,9 @@
   <si>
     <t>hotel.jpeg</t>
   </si>
+  <si>
+    <t>https://www.marriott.com/en-us/hotels/bwipf-springhill-suites-prince-frederick/overview/?scid=00594352-ec39-4fbe-8746-ea16db0ab8d5&amp;gclid=CjwKCAiAzp6eBhByEiwA_gGq5IXh9Kd5wbJfk2zY5-mmI7uuW8Gto0fHKYdqwpbu0kyDWY_ZvhF5AxoCyXMQAvD_BwE&amp;gclsrc=aw.ds</t>
+  </si>
 </sst>
 </file>
 
@@ -118,7 +127,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m/d/yyyy"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="5">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -133,6 +142,15 @@
     <font>
       <color theme="1"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <color rgb="FF0000FF"/>
     </font>
   </fonts>
   <fills count="2">
@@ -149,7 +167,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -160,8 +178,14 @@
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
@@ -408,155 +432,164 @@
       <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
+      <c r="E1" s="4" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="2" ht="15.75" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="C2" s="5" t="s">
         <v>7</v>
       </c>
+      <c r="D2" s="3" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="3" ht="15.75" customHeight="1">
       <c r="A3" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="4"/>
-      <c r="D3" s="3" t="s">
         <v>10</v>
       </c>
+      <c r="C3" s="5"/>
+      <c r="D3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="4" ht="15.75" customHeight="1">
       <c r="A4" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="5" t="s">
         <v>14</v>
       </c>
+      <c r="C4" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="5" ht="15.75" customHeight="1">
       <c r="A5" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
-      <c r="C5" s="4" t="s">
-        <v>17</v>
+      <c r="C5" s="5" t="s">
+        <v>19</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" ht="15.75" customHeight="1">
       <c r="A6" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
-      <c r="C6" s="4" t="s">
-        <v>21</v>
+      <c r="C6" s="5" t="s">
+        <v>23</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" ht="15.75" customHeight="1">
       <c r="A7" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" s="6" t="s">
         <v>26</v>
       </c>
+      <c r="C7" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="8" ht="15.75" customHeight="1">
       <c r="A8" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
-      <c r="C8" s="7" t="s">
-        <v>29</v>
+      <c r="C8" s="9" t="s">
+        <v>31</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>30</v>
+        <v>32</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="9" ht="15.75" customHeight="1">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
-      <c r="C9" s="8"/>
+      <c r="C9" s="10"/>
       <c r="D9" s="3"/>
     </row>
     <row r="10" ht="15.75" customHeight="1">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
-      <c r="C10" s="8"/>
+      <c r="C10" s="10"/>
       <c r="D10" s="3"/>
     </row>
     <row r="11" ht="15.75" customHeight="1">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
-      <c r="C11" s="8"/>
+      <c r="C11" s="10"/>
       <c r="D11" s="3"/>
     </row>
     <row r="12" ht="15.75" customHeight="1">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
-      <c r="C12" s="8"/>
+      <c r="C12" s="10"/>
       <c r="D12" s="3"/>
     </row>
     <row r="13" ht="15.75" customHeight="1">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
-      <c r="C13" s="8"/>
+      <c r="C13" s="10"/>
       <c r="D13" s="3"/>
     </row>
     <row r="14" ht="15.75" customHeight="1">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
-      <c r="C14" s="8"/>
+      <c r="C14" s="10"/>
       <c r="D14" s="3"/>
     </row>
     <row r="15" ht="15.75" customHeight="1">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
-      <c r="C15" s="8"/>
+      <c r="C15" s="10"/>
       <c r="D15" s="3"/>
     </row>
     <row r="16" ht="15.75" customHeight="1">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
-      <c r="C16" s="8"/>
+      <c r="C16" s="10"/>
       <c r="D16" s="3"/>
     </row>
     <row r="17" ht="15.75" customHeight="1">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
-      <c r="C17" s="8"/>
+      <c r="C17" s="10"/>
       <c r="D17" s="3"/>
     </row>
     <row r="18" ht="15.75" customHeight="1">
@@ -3509,9 +3542,13 @@
       <c r="D1000" s="3"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink r:id="rId1" ref="E3"/>
+    <hyperlink r:id="rId2" ref="E8"/>
+  </hyperlinks>
   <printOptions/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId1"/>
+  <drawing r:id="rId3"/>
 </worksheet>
 </file>